--- a/templates/Port_Letter_FCA.xlsx
+++ b/templates/Port_Letter_FCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2213CD-D5A9-4621-95B0-FF406DE8785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA122DE-8971-4FDB-A9AE-BB6319128AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="83" windowWidth="27076" windowHeight="16394" xr2:uid="{2E466B64-48C3-4933-967A-89DBEAC52CFB}"/>
+    <workbookView xWindow="-26978" yWindow="-98" windowWidth="27076" windowHeight="16395" xr2:uid="{2E466B64-48C3-4933-967A-89DBEAC52CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Port_Letter" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,19 @@
   <definedNames>
     <definedName name="Banner_end">Port_Letter!$D$14</definedName>
     <definedName name="Banner_start">Port_Letter!$A$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Port_Letter!$A$1:$D$59</definedName>
-    <definedName name="Seal_seller_end">Port_Letter!$C$51</definedName>
-    <definedName name="Seal_seller_start">Port_Letter!$C$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Port_Letter!$A$1:$D$56</definedName>
+    <definedName name="Seal_seller_end">Port_Letter!$C$48</definedName>
+    <definedName name="Seal_seller_start">Port_Letter!$C$46</definedName>
     <definedName name="Sign_seller_end">Port_Letter!#REF!</definedName>
-    <definedName name="Sign_seller_start">Port_Letter!$C$50</definedName>
+    <definedName name="Sign_seller_start">Port_Letter!$C$47</definedName>
     <definedName name="Выгрузка_ответственный1">Port_Letter!$A$37</definedName>
     <definedName name="Выгрузка_ответственный2">Port_Letter!$A$38</definedName>
-    <definedName name="Письмо_дата">Port_Letter!$A$51</definedName>
+    <definedName name="Письмо_дата">Port_Letter!$A$48</definedName>
     <definedName name="Письмо_массив">Port_Letter!$A$24</definedName>
     <definedName name="Письмо_описание_подвал">Port_Letter!$A$33</definedName>
     <definedName name="Письмо_описание_шапка">Port_Letter!$A$22</definedName>
-    <definedName name="Подписант">Port_Letter!$D$50</definedName>
-    <definedName name="Подписант_комментарий">Port_Letter!$A$50</definedName>
+    <definedName name="Подписант">Port_Letter!$D$47</definedName>
+    <definedName name="Подписант_комментарий">Port_Letter!$A$47</definedName>
     <definedName name="Порт">Port_Letter!$D$17</definedName>
     <definedName name="Порт_директор">Port_Letter!$D$18</definedName>
     <definedName name="Порт_почта">Port_Letter!$D$19</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294966465" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Котов М.Н.</t>
   </si>
@@ -345,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -722,10 +722,10 @@
     <tabColor theme="5" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -874,52 +874,65 @@
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:4" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="14.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="1:1" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="14.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="1:4" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C49" s="9" t="s">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C46" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="44.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="11" t="s">
+    <row r="47" spans="1:4" ht="44.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="18" customFormat="1" ht="37.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="17">
+    <row r="48" spans="1:4" s="18" customFormat="1" ht="37.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="17">
         <v>44809</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="19"/>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="1:10" ht="2.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="13"/>
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" ht="2.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="13"/>
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" ht="2.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="13"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:10" ht="2.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="13"/>
@@ -937,22 +950,10 @@
       <c r="A55" s="13"/>
       <c r="D55" s="12"/>
     </row>
-    <row r="56" spans="1:10" ht="2.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="13"/>
-      <c r="D56" s="12"/>
-    </row>
-    <row r="57" spans="1:10" ht="2.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="13"/>
-      <c r="D57" s="12"/>
-    </row>
-    <row r="58" spans="1:10" ht="2.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="13"/>
-      <c r="D58" s="12"/>
-    </row>
-    <row r="59" spans="1:10" ht="2.35" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
+    <row r="56" spans="1:10" ht="2.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" autoFilter="0" selectUnlockedCells="1"/>
@@ -964,25 +965,25 @@
       <formula>LEN(TRIM(A24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:L49">
+  <conditionalFormatting sqref="F29:L46">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F29&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="5">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L29:L60" xr:uid="{0D63E666-9414-4358-BF2B-A7FB8B1DA8A8}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L29:L57" xr:uid="{0D63E666-9414-4358-BF2B-A7FB8B1DA8A8}">
       <formula1>K29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J29:J59" xr:uid="{FD5DB15B-7740-4358-85C4-A26F30BA628F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J29:J56" xr:uid="{FD5DB15B-7740-4358-85C4-A26F30BA628F}">
       <formula1>"Продавца,Покупателя, -"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I29:I59" xr:uid="{02A2EAA3-2EA2-4BF3-B5A7-79CAAA73C3F2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I29:I56" xr:uid="{02A2EAA3-2EA2-4BF3-B5A7-79CAAA73C3F2}">
       <formula1>"Продавца,Покупателя"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:H60" xr:uid="{0083999A-9C9B-4DB7-9798-4B5CB4C21831}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:H57" xr:uid="{0083999A-9C9B-4DB7-9798-4B5CB4C21831}">
       <formula1>"с борта,с хранения"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K29:K60" xr:uid="{819A01AB-0010-4633-A6EC-3F42F1A65BB0}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K29:K57" xr:uid="{819A01AB-0010-4633-A6EC-3F42F1A65BB0}">
       <formula1>$F$12</formula1>
     </dataValidation>
   </dataValidations>
@@ -991,7 +992,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId2"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>

--- a/templates/Port_Letter_FCA.xlsx
+++ b/templates/Port_Letter_FCA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA122DE-8971-4FDB-A9AE-BB6319128AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97102C62-BC78-42AA-9647-EAB0001E1DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26978" yWindow="-98" windowWidth="27076" windowHeight="16395" xr2:uid="{2E466B64-48C3-4933-967A-89DBEAC52CFB}"/>
+    <workbookView xWindow="-26978" yWindow="-98" windowWidth="27076" windowHeight="16996" xr2:uid="{2E466B64-48C3-4933-967A-89DBEAC52CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Port_Letter" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="Sign_seller_start">Port_Letter!$C$47</definedName>
     <definedName name="Выгрузка_ответственный1">Port_Letter!$A$37</definedName>
     <definedName name="Выгрузка_ответственный2">Port_Letter!$A$38</definedName>
+    <definedName name="Контрольный_звонок">Port_Letter!$A$40</definedName>
     <definedName name="Письмо_дата">Port_Letter!$A$48</definedName>
     <definedName name="Письмо_массив">Port_Letter!$A$24</definedName>
     <definedName name="Письмо_описание_подвал">Port_Letter!$A$33</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Котов М.Н.</t>
   </si>
@@ -111,23 +112,6 @@
   </si>
   <si>
     <t>Выгрузить на АВТО</t>
-  </si>
-  <si>
-    <r>
-      <t>технологического оборудования просим выставлять на</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Афанасьева В.В</t>
-    </r>
   </si>
   <si>
     <r>
@@ -172,6 +156,26 @@
         <scheme val="minor"/>
       </rPr>
       <t>ООО "Маг-Си Интернешнл"</t>
+    </r>
+  </si>
+  <si>
+    <t>Передача продукции по контрольному звонку: (телефон)</t>
+  </si>
+  <si>
+    <r>
+      <t>технологического оборудования просим выставлять на</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
 </sst>
@@ -724,8 +728,8 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -882,18 +886,23 @@
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="35" spans="1:4" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="37" spans="1:4" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/templates/Port_Letter_FCA.xlsx
+++ b/templates/Port_Letter_FCA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97102C62-BC78-42AA-9647-EAB0001E1DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A25172-E054-422B-92D9-A83301FD39E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26978" yWindow="-98" windowWidth="27076" windowHeight="16996" xr2:uid="{2E466B64-48C3-4933-967A-89DBEAC52CFB}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="16395" xr2:uid="{2E466B64-48C3-4933-967A-89DBEAC52CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Port_Letter" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <definedName name="Выгрузка_ответственный1">Port_Letter!$A$37</definedName>
     <definedName name="Выгрузка_ответственный2">Port_Letter!$A$38</definedName>
     <definedName name="Контрольный_звонок">Port_Letter!$A$40</definedName>
+    <definedName name="Номер_письма">Port_Letter!$A$16</definedName>
     <definedName name="Письмо_дата">Port_Letter!$A$48</definedName>
     <definedName name="Письмо_массив">Port_Letter!$A$24</definedName>
     <definedName name="Письмо_описание_подвал">Port_Letter!$A$33</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Котов М.Н.</t>
   </si>
@@ -292,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -352,6 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -728,8 +730,8 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -770,6 +772,9 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>

--- a/templates/Port_Letter_FCA.xlsx
+++ b/templates/Port_Letter_FCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A25172-E054-422B-92D9-A83301FD39E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0B6FDD-146B-4F19-8FFB-C544677A3957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="16395" xr2:uid="{2E466B64-48C3-4933-967A-89DBEAC52CFB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{2E466B64-48C3-4933-967A-89DBEAC52CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Port_Letter" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <definedName name="Выгрузка_ответственный2">Port_Letter!$A$38</definedName>
     <definedName name="Контрольный_звонок">Port_Letter!$A$40</definedName>
     <definedName name="Номер_письма">Port_Letter!$A$16</definedName>
-    <definedName name="Письмо_дата">Port_Letter!$A$48</definedName>
     <definedName name="Письмо_массив">Port_Letter!$A$24</definedName>
     <definedName name="Письмо_описание_подвал">Port_Letter!$A$33</definedName>
     <definedName name="Письмо_описание_шапка">Port_Letter!$A$22</definedName>
@@ -350,10 +349,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -730,8 +729,8 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -772,7 +771,7 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -797,12 +796,12 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:15" s="6" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
@@ -928,9 +927,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" s="18" customFormat="1" ht="37.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="17">
-        <v>44809</v>
-      </c>
+      <c r="A48" s="17"/>
       <c r="C48" s="9" t="s">
         <v>12</v>
       </c>

--- a/templates/Port_Letter_FCA.xlsx
+++ b/templates/Port_Letter_FCA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0B6FDD-146B-4F19-8FFB-C544677A3957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90500820-6B60-4DF4-9845-F4A6E21DB23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{2E466B64-48C3-4933-967A-89DBEAC52CFB}"/>
   </bookViews>
@@ -409,9 +409,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -449,7 +449,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -555,7 +555,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -697,7 +697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -729,8 +729,8 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -981,7 +981,7 @@
       <formula>$F29&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L29:L57" xr:uid="{0D63E666-9414-4358-BF2B-A7FB8B1DA8A8}">
       <formula1>K29</formula1>
     </dataValidation>
